--- a/biology/Médecine/Affaire_de_l'amiante_en_France/Affaire_de_l'amiante_en_France.xlsx
+++ b/biology/Médecine/Affaire_de_l'amiante_en_France/Affaire_de_l'amiante_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme médiatique scandale de l’amiante désigne le délai entre la prise de conscience en France d’abord dans les années 1970[1], puis dans les années 1990[2],[3] du problème sanitaire causé par l’exposition à l’amiante et le délai de réaction des pouvoirs publics, confrontés au lobbying des industries de l’amiante. Il s’est écoulé plus d’un demi-siècle entre les premières études (1945) et l’interdiction de l’amiante en 1997 par le président Jacques Chirac. Les premières décisions adéquates (1977-78) n’ont été prises qu’à la suite de la médiatisation (1975) des polémiques entre scientifiques tel Henri Pézerat et lobbyistes de l’amiante tel Marcel Valtat. Les pouvoirs publics et les industriels utilisent le synonyme, selon eux plus neutre, d'affaire de l’amiante en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme médiatique scandale de l’amiante désigne le délai entre la prise de conscience en France d’abord dans les années 1970, puis dans les années 1990, du problème sanitaire causé par l’exposition à l’amiante et le délai de réaction des pouvoirs publics, confrontés au lobbying des industries de l’amiante. Il s’est écoulé plus d’un demi-siècle entre les premières études (1945) et l’interdiction de l’amiante en 1997 par le président Jacques Chirac. Les premières décisions adéquates (1977-78) n’ont été prises qu’à la suite de la médiatisation (1975) des polémiques entre scientifiques tel Henri Pézerat et lobbyistes de l’amiante tel Marcel Valtat. Les pouvoirs publics et les industriels utilisent le synonyme, selon eux plus neutre, d'affaire de l’amiante en France.
 C’est l’inhalation des fibres d’amiante qui est dangereuse car elle produit une fibrose pulmonaire, l’asbestose, dans le cas de fortes expositions (travailleurs de l’amiante). L’amiante est également un cancérogène, en cause dans les cancers broncho-pulmonaires, et dans les cancers de la plèvre (mésothéliome ; ce dernier est considéré comme spécifique de l’amiante et sert de marqueur statistique). Les populations concernées sont les travailleurs de l’amiante, les travailleurs du bâtiment (amenés à intervenir dans des bâtiments contenant de l'amiante), et de façon plus générale les populations qui ont été exposées à l’amiante. Le rapport INSERM 2006 sur l’amiante a établi que : « Il n'y a pas de limite sous laquelle on peut considérer que l'amiante n'est pas cancérogène », mais la fréquence des pathologies qui y sont liées est fonction de la durée d’exposition, de la quantité d’amiante inhalée, et, hormis les fibroses, se matérialise longtemps après l’exposition (en ce qui concerne les cancers autour de 30 à 40 ans).
-Le scandale de l’amiante a obligé les pouvoirs publics à engager de coûteux chantiers de désamiantage de bâtiments publics. Le coût n’est pas supporté par les industriels de l’amiante, mais par la collectivité publique[4],[5].
-Des procès ont lieu entre industriels et ouvriers. Selon un rapport du Sénat de 2005, l’utilisation de l’amiante est responsable de 35 000 décès survenus entre 1965 et 1995 en France, et pourrait causer de 65 000 décès à 100 000 décès entre 2005 et 2025-2030[6].
+Le scandale de l’amiante a obligé les pouvoirs publics à engager de coûteux chantiers de désamiantage de bâtiments publics. Le coût n’est pas supporté par les industriels de l’amiante, mais par la collectivité publique,.
+Des procès ont lieu entre industriels et ouvriers. Selon un rapport du Sénat de 2005, l’utilisation de l’amiante est responsable de 35 000 décès survenus entre 1965 et 1995 en France, et pourrait causer de 65 000 décès à 100 000 décès entre 2005 et 2025-2030.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,24 +526,61 @@
           <t>Chronologie de la connaissance des risques de l’amiante en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il faut noter que la toxicité de l'amiante est connue depuis l'Antiquité : Pline l'Ancien l'évoque chez les esclaves romains dès le Ier siècle[7].
-De 1898 à 1994
-1898 : en Angleterre, un inspecteur en chef des usines écrit dans son rapport annuel que les risques de l'amiante pour la santé sont « aisément démontrés »[8].
-1906 : Denis Auribault, inspecteur départemental du travail à Caen, publie un rapport dénonçant la « forte mortalité des ouvriers dans les filatures et dans les usines de tissage d'amiante »[2].
-1919 : les compagnies d'assurances américaines et anglaises suppriment leur garantie pour les entreprises fabriquant des matériaux contenant de l'amiante[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut noter que la toxicité de l'amiante est connue depuis l'Antiquité : Pline l'Ancien l'évoque chez les esclaves romains dès le Ier siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chronologie de la connaissance des risques de l’amiante en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De 1898 à 1994</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1898 : en Angleterre, un inspecteur en chef des usines écrit dans son rapport annuel que les risques de l'amiante pour la santé sont « aisément démontrés ».
+1906 : Denis Auribault, inspecteur départemental du travail à Caen, publie un rapport dénonçant la « forte mortalité des ouvriers dans les filatures et dans les usines de tissage d'amiante ».
+1919 : les compagnies d'assurances américaines et anglaises suppriment leur garantie pour les entreprises fabriquant des matériaux contenant de l'amiante.
 1929 : les différentes firmes européennes Eternit se réunissent en un cartel, la SAIAC (pour Sociétés Associées d'Industries Amiante-Ciment), qui centralise, entre autres, les informations scientifiques sur les dangers de l'amiante.
 1945 : un tableau de maladies professionnelles dues à l'amiante est créé. Les employeurs ne peuvent prétendre ignorer les risques.
 Dès la fin des années 1950, le mésothéliome pleural et péritonéal était attribué au rôle cancérigène des fibres d'amiante, mais les organismes de sécurité sociale refusaient d'admettre cette pathologie parmi les maladies professionnelles, du fait qu'elle ne figurait pas au répertoire.
 1951 : les frères Blandin créent un matériau à projeter sans amiante. Un flocage sans amiante est disponible et très largement utilisé en France en concurrence avec l'amiante, bien avant l'interdiction de l'amiante dans les flocages.
-1964 : la Chambre patronale de l'amiante organise en ami le premier congrès international sur l'asbestose à Caen[10]. L'Académie des sciences de New York organise en octobre une conférence internationale sur les effets de l'amiante[11].
+1964 : la Chambre patronale de l'amiante organise en ami le premier congrès international sur l'asbestose à Caen. L'Académie des sciences de New York organise en octobre une conférence internationale sur les effets de l'amiante.
 1965 : premier cas recensé en France d'un mésothéliome (dont la seule cause connue est l'amiante). Les importations massives d'amiante continuent néanmoins durant trente ans encore (pour un total équivalant à 80 kg par habitant).
 1971 : les industriels américains du Nord et européens, qui développent des centaines d'applications de la fibre ignifuge, se réunissent à Londres le 24 novembre lorsque des études scientifiques pointent sa nocivité. Les pressions vont s'accroitre à plus ou moins long terme, redoute l'organisateur de la conférence, « préparez votre défense »
 1975 : les journaux télévisés informent du risque de cancer lié à l'amiante, et du risque de décès, autour de l'actualité de Jussieu, menée entre autres par le chercheur Henri Pézerat.
 1976 : une conférence du Centre international de recherche sur le cancer (CIRC) classe l'amiante comme « cancérigène avéré » pour l'homme.
 1977 :
-le professeur Étienne Fournier, président de la commission des maladies professionnelles du Conseil supérieur de la prévention des risques professionnels, directeur du Centre antipoison Fernand-Widal à Paris, professeur de clinique toxicologique et membre de l'Académie nationale de médecine, patronne en 1977 le colloque « Amiante et cancérogenèse humaine », financé par chambre syndicale patronale de l'amiante, qui conclut que ces fibres ne sont cancérogènes qu'en association avec le tabagisme[12] ;
+le professeur Étienne Fournier, président de la commission des maladies professionnelles du Conseil supérieur de la prévention des risques professionnels, directeur du Centre antipoison Fernand-Widal à Paris, professeur de clinique toxicologique et membre de l'Académie nationale de médecine, patronne en 1977 le colloque « Amiante et cancérogenèse humaine », financé par chambre syndicale patronale de l'amiante, qui conclut que ces fibres ne sont cancérogènes qu'en association avec le tabagisme ;
 Marcel Valtat crée « Communications économiques et sociales » (CES), un des premiers cabinets français de lobbying spécialisés dans la défense de l'image des entreprises commercialisant des produits industriels toxiques dont l'amiante, cheville ouvrière de la minimisation de sa dangerosité (le décès de Valtat 1993 marquera le début d'un déclin de l'efficacité de ce lobbying) ;
 Jean Bignon, pneumologue respecté, écrit à Raymond Barre, premier ministre : « force est d'admettre que l'amiante est un cancérogène physique dont l'étendue des méfaits chez l'homme est actuellement bien connue » et prédit « des conséquences plus graves sur la santé publique pour les trente années à venir » ;
 des décrets et arrêtés réglementent l'usage de l'amiante : le flocage à l'amiante, c'est-à-dire la projection de fibres d'amiante avec un liant faible à fin d'isolation thermique, ou le plus souvent de protection contre le feu de structures métalliques, est interdit dans les habitations (décret du 29 juin 1977). Mais le décret d'août 1977 sur la protection des travailleurs exposés aux poussières d'amiante définit une norme d'exposition tolérable dix fois supérieure à celle que le Royaume-Uni a adopté en 1969 (0,2 fibre/cm3 d'air pour la crocidolite, variété la plus dangereuse de l'amiante).
@@ -543,12 +592,46 @@
 1986 : lorsque les États-Unis envisagent d'interdire l'amiante, la France intervient pour émettre un avis négatif, fondé sur un rapport du Comité permanent amiante. Et quand, poussée par l'Allemagne en 1991, la Communauté européenne s'interroge sur une interdiction pure et simple de l'amiante, le CPA procède de nouveau à un intense lobbying dans les couloirs de la Commission afin d'empêcher toute prohibition, avec le soutien du lobby canadien.
 En 1991, la Communauté européenne s'interroge sur l'interdiction mais la France, encouragée par un lobbying intensif du Comité Permanent Amiante, contribuera grandement à « geler » la situation.
 En 1992, dans une école de Pontoise, enseignants et parents découvrent la présence massive d'amiante dans les faux plafonds et s'inquiètent. Le maire ferme les classes et un instituteur prévient la CGT, qui renvoie sur le Comité Permanent Amiante.
-En 1994, la mort de six enseignants au lycée de Gérardmer (Vosges) relance le débat sur l'amiante et à Jussieu une nouvelle génération de chercheurs s'inquiète de la présence de l'amiante. Michel Parigot, responsable du Comité anti-amiante de Jussieu déclare : « nous avons été confrontés au Comité Permanent Amiante très rapidement et l'existence de ce truc m'a sidéré ; quand on téléphonait au ministère de la santé, on tombait sur quelqu'un de ce "comité" qui nous répondait : Il y a plus de risques sur le périphérique que dans votre université. Nous avons très vite compris que cette structure n'avait réussi à fonctionner aussi longtemps que parce qu'elle n'avait pas été dénoncée publiquement. C'est le genre de choses qui ne supportent pas la lumière. »[réf. nécessaire]
-De 1995 à nos jours
-En 1995, les groupes d'opposition à l'amiante s'attachent à discréditer l'organisme et ses membres, menant une campagne efficace, envoyant des notes à tous les journaux sur le CPA. Certains membres du Comité permanent amiante[5] sentant le vent tourner vont discrètement démissionner et les ministères annoncent quitter une structure où ils affirment n'avoir été qu'en tant qu'observateurs. Le comité disparaît fin 1995.
-Le 19 octobre 1996 Claude Allègre dénonce un « phénomène de psychose collective »[13].
+En 1994, la mort de six enseignants au lycée de Gérardmer (Vosges) relance le débat sur l'amiante et à Jussieu une nouvelle génération de chercheurs s'inquiète de la présence de l'amiante. Michel Parigot, responsable du Comité anti-amiante de Jussieu déclare : « nous avons été confrontés au Comité Permanent Amiante très rapidement et l'existence de ce truc m'a sidéré ; quand on téléphonait au ministère de la santé, on tombait sur quelqu'un de ce "comité" qui nous répondait : Il y a plus de risques sur le périphérique que dans votre université. Nous avons très vite compris que cette structure n'avait réussi à fonctionner aussi longtemps que parce qu'elle n'avait pas été dénoncée publiquement. C'est le genre de choses qui ne supportent pas la lumière. »[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chronologie de la connaissance des risques de l’amiante en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>De 1995 à nos jours</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1995, les groupes d'opposition à l'amiante s'attachent à discréditer l'organisme et ses membres, menant une campagne efficace, envoyant des notes à tous les journaux sur le CPA. Certains membres du Comité permanent amiante sentant le vent tourner vont discrètement démissionner et les ministères annoncent quitter une structure où ils affirment n'avoir été qu'en tant qu'observateurs. Le comité disparaît fin 1995.
+Le 19 octobre 1996 Claude Allègre dénonce un « phénomène de psychose collective ».
 1996 : L'Inserm révèle l'ampleur de la catastrophe sanitaire, estimant qu'elle pourrait faire 100 000 morts en France d'ici à 2025[réf. nécessaire].
-Février 1996 : Création en France de l'ANDEVA, Association Nationale DEs Victimes de l'Amiante[14], qui dépose plusieurs plainte contre X au pénal. Douze ans plus tard, ces plaintes n'ont pas abouti. L'association procure une aide aux victimes, notamment pour l'accès à la reconnaissance en maladie professionnelle et pour l'indemnisation devant les tribunaux.
+Février 1996 : Création en France de l'ANDEVA, Association Nationale DEs Victimes de l'Amiante, qui dépose plusieurs plainte contre X au pénal. Douze ans plus tard, ces plaintes n'ont pas abouti. L'association procure une aide aux victimes, notamment pour l'accès à la reconnaissance en maladie professionnelle et pour l'indemnisation devant les tribunaux.
 19 novembre 1996 : Des informations judiciaires sont ouvertes contre X pour « violences volontaires » et « abstention délictueuses » après des plaintes du comité anti-amiante de Jussieu et de deux enseignants.
 1er janvier 1997 : L'usage de l'amiante est interdit, par le décret no 96-1133 du 24 décembre 1996 relatif à l'amiante, pris en application du code du travail et du code de la consommation. La France est le huitième pays européen à le faire.
 Depuis 1996, avec des modifications en 1997, 2001 et en 2002, une réglementation s'imposant aux propriétaires d'immeubles bâtis crée des obligations de recherche d'amiante dans leurs locaux, à l'occasion notamment des transactions immobilières ou des démolitions. Dans certains cas exceptionnels où la population serait exposée au risque d'inhalation de fibres d'amiante, des travaux peuvent être imposés.
@@ -561,38 +644,40 @@
 Décembre 2003 : Tous les propriétaires d'immeubles de grande hauteur ou recevant du public doivent avoir rempli leurs obligations : rechercher la présence d'amiante selon un protocole précis, établir un dossier technique consultable par tous les occupants, et élaborer un programme de confinement ou de retrait du matériau. Le problème de cette réglementation, adoptée par étape entre 1996 et 2002, est que le gouvernement n'a aucun moyen de vérifier son application.
 Octobre 2005 : Une mission du Sénat, présidée par Jean-Marie Vanlerenberghe, évoque une « épidémie à venir inéluctable et irréversible » de cancers provoqués par l'amiante et met en cause « la responsabilité de l'État » dans « la gestion défaillante » de ce dossier. Elle formule vingt-huit propositions allant de l'amélioration de l'information des salariés à celle des tribunaux, en passant par un renforcement des mesures financières pour l'indemnisation des victimes de l'amiante.
 Juin 2006 : Parution d'un nouveau décret pour corriger les défaillances des réglementations précédentes. Le décret de 98 est annulé. Le Dossier Technique Amiante (DTA) doit maintenant être joint au Plan Général de Coordination et au Plan de Prévention établi avant travaux ainsi qu'au Dossier d'Intervention Ultérieure sur l'Ouvrage s'il subsiste de l'amiante après les travaux. Au plan de retrait et de confinement des matériaux amiantés s'ajoute le plan de démolition.
-2007 : Selon le Nouvel Observateur, 22 morts et 130 victimes reconnues comme maladie professionnelle ont été recensés à ce jour parmi le personnel travaillant ou ayant travaillé sur le campus de Jussieu[15]. L'InVS fait lui état de cinq cas de mésothéliome pleural[16].
-Juin 2011 : Le Gouvernement veut remettre en cause l'indemnisation des victimes de l'amiante, faisant l'objet d'une lettre ouverte de l'Association des Accidentés de la vie ( FNATH ) et ANDEVA 5[17],[18].
-2012 : une étude l'Institut de veille sanitaire (InVS) affirme que l'amiante provoquera de 130 000 à 180 000 décès en France[19].
-2018 : selon les autorités sanitaires, l'amiante est responsable d'environ 3 000 décès par cancer chaque année[19].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+2007 : Selon le Nouvel Observateur, 22 morts et 130 victimes reconnues comme maladie professionnelle ont été recensés à ce jour parmi le personnel travaillant ou ayant travaillé sur le campus de Jussieu. L'InVS fait lui état de cinq cas de mésothéliome pleural.
+Juin 2011 : Le Gouvernement veut remettre en cause l'indemnisation des victimes de l'amiante, faisant l'objet d'une lettre ouverte de l'Association des Accidentés de la vie ( FNATH ) et ANDEVA 5,.
+2012 : une étude l'Institut de veille sanitaire (InVS) affirme que l'amiante provoquera de 130 000 à 180 000 décès en France.
+2018 : selon les autorités sanitaires, l'amiante est responsable d'environ 3 000 décès par cancer chaque année.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lieux de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avant l'interdiction de l'amiante, les principaux centres de production de produits de flocage ou amiante-ciment ont été :
 Vitry-en-Charollais, en Saône-et-Loire (Usine Eternit) ;
@@ -602,40 +687,42 @@
 Saint-Grégoire, en Ille-et-Vilaine (Usine Eternit) ;
 Condé-sur-Noireau et la vallée de la Vère en Basse-Normandie (usine Ferodo).
 Outre Eternit et Ferodo, plusieurs sociétés, plus ou moins identifiées ont produit des centaines d'objets contenant de l'amiante, dont par exemple
-Dalami à Saint-Rambert-d'Albon (qui a produit des dalles et produits amiantés sur les bords du Rhône), se faisant livrer l'amiante par péniche depuis Anvers à Lyon, puis par train jusqu'à Saint-Rambert-d’Albon, et qui aurait souhaité importer en 1965 1 500 tonnes par mois d’amiante, au lieu de 750 tonnes, envisageant pour cela « de construire un poste de déchargement sur la rive gauche du Rhône, à la balise kilométrique 65,350 ». Cette construction n’a jamais été réalisée, vraisemblablement à cause de la future construction par la Compagnie Nationale du Rhône de l’aménagement du Péage-de-Roussillon[20].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Dalami à Saint-Rambert-d'Albon (qui a produit des dalles et produits amiantés sur les bords du Rhône), se faisant livrer l'amiante par péniche depuis Anvers à Lyon, puis par train jusqu'à Saint-Rambert-d’Albon, et qui aurait souhaité importer en 1965 1 500 tonnes par mois d’amiante, au lieu de 750 tonnes, envisageant pour cela « de construire un poste de déchargement sur la rive gauche du Rhône, à la balise kilométrique 65,350 ». Cette construction n’a jamais été réalisée, vraisemblablement à cause de la future construction par la Compagnie Nationale du Rhône de l’aménagement du Péage-de-Roussillon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Métiers exposés au risque de l'amiante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les métiers exposés au risque de l'amiante sont des métiers de travaux miniers, de fabrication de produits contenant de l’amiante, de raffinerie et pétrochimie (où l'isolation anti-incendie est très utilisée), du bâtiment et travaux publics (en particulier ouvriers d'isolation, de climatisation et de chauffage, de chantiers de retrait d’amiante, d'installation de protection anti-incendie), du travail du verre, de la métallurgie et sidérurgie.
 Une liste figure dans le rapport de l'Agence Nationale de Sécurité Sanitaire (Anses).
 Cette liste est établie en collaboration principalement avec ARDCO (Asbestos-related diseases cohort) qui a réalisé une étude d'exposition ; à l'origine de 2 programmes nationaux de surveillance post-professionnelle à l'amiante (SPIRALE et ESPRI) ;
-Le Réseau National de Vigilance et de Prévention de Pathologies Professionnelles (RNV3P) surveille également les effets de l'amiante en milieu professionnel, via un réseau intégré[21].
+Le Réseau National de Vigilance et de Prévention de Pathologies Professionnelles (RNV3P) surveille également les effets de l'amiante en milieu professionnel, via un réseau intégré.
 Travaux miniers
 Extraction, manipulation, traitement de minerais et roches amiantifères
 Ouvrier de fabrication de fibrociment, de garnitures de freins, embrayages, d’amiante textile, de joints et de matériaux d'isolation en amiante
@@ -691,83 +778,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Responsabilités</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>État</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Procédures judiciaires en France</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la jurisprudence de la Cour de cassation sur la Faute inexcusable de l'employeur[22] a conduit à une augmentation considérable des recours devant les tribunaux et à une condamnation quasi systématique des employeurs[réf. souhaitée].
-En 2001, notamment, aux Chantiers de l'Atlantique (Alstom marine) les précautions n’ont pas été prises pour protéger les salariés, 1 500 ouvriers ont développé des maladies liées à l’amiante. Le tribunal de Nantes reconnaît la « faute inexcusable » de la direction. Les plaignants, des salariés, seront indemnisés, et le montant de leur dommages et intérêts sera majoré[23].
-Avec 71 procédures venant de toute la France (35 à l'instruction, 23 en enquête préliminaire et 13 en attente d'examen par le parquet), l'amiante est, de loin, le dossier le plus important du pôle de santé publique du tribunal de Paris en 2006. La mise en cause des industriels et autres membres, de l'ancien Comité permanent amiante pourrait être envisagée ainsi que des responsables sanitaires et administratifs.
-Procédures pénale
-Société Ferodo Valeo
-Le 19 septembre 2006, trois anciens directeurs de l'usine Ferodo Valeo (devenue Honeywell) de Condé-sur-Noireau sont mis en examen par les juges Marie-Odile Bertella-Geffroy et Didier Peltier pour blessures et homicides involontaires et non-assistance à personne en danger.
-Société Alstom Power Boilers
-La société Alstom Power Boilers a été condamnée par la cour d'appel de Douai le 5 mai 2008, qui par ce jugement a confirmé le jugement du tribunal correctionnel de Lille du 4 septembre 2006, à 75 000 euros d’amende dans une affaire d'amiante, sur le fondement de l'infraction de risque causé à autrui, de l'article 223-1 du Code Pénal pour avoir violé de façon « manifestement délibérée une obligation particulière de prudence ou de sécurité imposée par la loi ou le règlement », premier cas en France d'une condamnation pour une exposition à un risque et non pour dommage réalisé, certains salariés n'étant pas encore déclarés atteints de maladie due à l'amiante[24]. L’un des anciens directeurs de l’usine a été condamné à 3 mois de prison avec sursis et de 3 000 euros d’amende pour « infraction à la règlementation générale sur l’hygiène et la sécurité ». Les 150 ex-salariés plaignant recevront 10 000 euros, soit au total plus de 1,5 million d’euros[25].
-Jurisprudence : reconnaissance du « préjudice d'anxiété des salariés »
-Ce préjudice a été reconnu dans le cadre du « Contentieux Normed: », après ouverture d'une procédure collective, et doit faire l'objet d'actions de réparation[26],[27].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -782,13 +799,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Désamiantage des bâtiments</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est prévu en 2011 et 2012 en France que la réglementation sur le désamiantage soit renforcée par une qualification obligatoire du personnel[28], qu'il s'agisse - en milieu intérieur ou extérieur - de retirer des plaques friables ou des «matériaux non friables contenant de l'amiante présentant des risques particuliers», définis par l’arrêté du 22 février 2007 comme concernant « tous les travaux sur des matériaux non friables, à l’exception de ceux réalisés en milieu extérieur ». L’obtention de la qualification s’effectue auprès de l'un des 3 organismes certificateurs accrédités : Qualibat ou Afnor Certification[28], Global Certification. 
-En plus des moyens existants, et dans un contexte où 30 % des entreprises n'arrivaient pas à renouveler leur qualification, Dominique Florio, entrepreneur et président du Groupement National Amiante, a pris l'initiative fin 2010  de créer un réseau, baptisé RTD (« Réseau des Techniciens du Desamiantage », qui propose des formations, un accompagnement au certificat de qualification probatoire, des prêts de matériel pour l’audit entreprise…), a été créé pour accompagner les entreprises du bâtiment dans leur démarche de retrait d'amiante[28].
+          <t>Procédures judiciaires en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la jurisprudence de la Cour de cassation sur la Faute inexcusable de l'employeur a conduit à une augmentation considérable des recours devant les tribunaux et à une condamnation quasi systématique des employeurs[réf. souhaitée].
+En 2001, notamment, aux Chantiers de l'Atlantique (Alstom marine) les précautions n’ont pas été prises pour protéger les salariés, 1 500 ouvriers ont développé des maladies liées à l’amiante. Le tribunal de Nantes reconnaît la « faute inexcusable » de la direction. Les plaignants, des salariés, seront indemnisés, et le montant de leur dommages et intérêts sera majoré.
+Avec 71 procédures venant de toute la France (35 à l'instruction, 23 en enquête préliminaire et 13 en attente d'examen par le parquet), l'amiante est, de loin, le dossier le plus important du pôle de santé publique du tribunal de Paris en 2006. La mise en cause des industriels et autres membres, de l'ancien Comité permanent amiante pourrait être envisagée ainsi que des responsables sanitaires et administratifs.
 </t>
         </is>
       </c>
@@ -799,7 +819,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -814,15 +834,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Polémique sur la couverture médiatique du scandale</t>
+          <t>Procédures judiciaires en France</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alors que d'autres affaires furent révélées dans les grands médias grâce à d'un journalisme d'enquête particulièrement tenace et à la protection des sources des journalistes, protégeant les personnes ayant révélé des informations pour qu'elles ne soient pas inquiétées, dans le cas de Affaire de l'amiante en France, le manque de révélations a été déploré, sur fond de polémiques concernant l'ampleur des risques.
-En France, Claude Allègre dénonça un « phénomène de psychose collective ». Selon l'économiste en santé publique Jean de Kervasdoué, les chantiers de désamiantage pour enlever totalement les fibres sont « coûteux et totalement inutiles d’un point de vue sanitaire ; l'utilité s'il y en a une, est symbolique »[29]. Selon lui, une même dépense investie dans des actions de santé publique aurait été « infiniment plus efficace ». Jean de Kervasdoué estime que l’État, en agissant ainsi, essaie de se laver du fait de n'avoir pas agi à temps, quand des personnes ont eu leur vie abrégée pour avoir manipulé l'amiante à bien plus hautes doses[29].
-En Angleterre, Christopher Booker, du London Sunday Telegraph et John Bridle en 2007 ont analysé le scandale de l'amiante comme étant une peur excessive et une obsession démesurée et montée en épingle : selon eux « L’obsession sur les dangers que représente l’amiante pour la santé est apparue par le biais de la promotion d’une confusion délibérée entre deux minéraux très différents qui, de par le simple fait qu’ils portent le même nom générique, ont fait l’objet d’une campagne malveillante de désinformation abusive par le "groupe de pression anti-amiante" de Grande-Bretagne, soutenue par tous ceux à qui cette confusion au sujet des différentes formes de l’amiante procurait un avantage financier[30]. »
-The Spectator, passant en revue les phobies collectives, conclut que « la peur la plus coûteuse, qui devint une vaste escroquerie, fut la campagne contre l'amiante. Dans cette affaire, la véritable source de danger provenant des amphiboles (qui a été parée il y a longtemps) a été confondue avec l'amiante "blanche" sans risque dont 90 % de tous les matériaux contenant de l'amiante sont constitués. Ni les médias ni les législateurs ne se sont appuyés sur les faits pour résister aux pressions combinées de plusieurs lobbys, avocats avides d'honoraires liés à des condamnations judiciaires et entrepreneurs du bâtiment gagnant des sommes démesurées pour retirer des matériaux anti-incendie inoffensifs des bâtiments. [..] Des juges se mirent à accorder 25 millions de dollars à des plaignants qui ne présentaient aucun symptôme de maladie. Une folie collective prit le dessus. Lloyd's of London a été amené au bord de la ruine, un sort auquel n'échappèrent pas de nombreux membres de Lloyd's of London[31]. »
+          <t>Procédures pénale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Société Ferodo Valeo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 septembre 2006, trois anciens directeurs de l'usine Ferodo Valeo (devenue Honeywell) de Condé-sur-Noireau sont mis en examen par les juges Marie-Odile Bertella-Geffroy et Didier Peltier pour blessures et homicides involontaires et non-assistance à personne en danger.
 </t>
         </is>
       </c>
@@ -833,7 +860,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -848,10 +875,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Commerce et intérêts de l'amiante dans le monde</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Procédures judiciaires en France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Procédures pénale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Société Alstom Power Boilers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société Alstom Power Boilers a été condamnée par la cour d'appel de Douai le 5 mai 2008, qui par ce jugement a confirmé le jugement du tribunal correctionnel de Lille du 4 septembre 2006, à 75 000 euros d’amende dans une affaire d'amiante, sur le fondement de l'infraction de risque causé à autrui, de l'article 223-1 du Code Pénal pour avoir violé de façon « manifestement délibérée une obligation particulière de prudence ou de sécurité imposée par la loi ou le règlement », premier cas en France d'une condamnation pour une exposition à un risque et non pour dommage réalisé, certains salariés n'étant pas encore déclarés atteints de maladie due à l'amiante. L’un des anciens directeurs de l’usine a été condamné à 3 mois de prison avec sursis et de 3 000 euros d’amende pour « infraction à la règlementation générale sur l’hygiène et la sécurité ». Les 150 ex-salariés plaignant recevront 10 000 euros, soit au total plus de 1,5 million d’euros.
+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -859,7 +901,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Affaire_de_l%27amiante_en_France</t>
+          <t>Affaire_de_l'amiante_en_France</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -874,13 +916,154 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Procédures judiciaires en France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Procédures pénale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jurisprudence : reconnaissance du « préjudice d'anxiété des salariés »</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce préjudice a été reconnu dans le cadre du « Contentieux Normed: », après ouverture d'une procédure collective, et doit faire l'objet d'actions de réparation,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Désamiantage des bâtiments</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est prévu en 2011 et 2012 en France que la réglementation sur le désamiantage soit renforcée par une qualification obligatoire du personnel, qu'il s'agisse - en milieu intérieur ou extérieur - de retirer des plaques friables ou des «matériaux non friables contenant de l'amiante présentant des risques particuliers», définis par l’arrêté du 22 février 2007 comme concernant « tous les travaux sur des matériaux non friables, à l’exception de ceux réalisés en milieu extérieur ». L’obtention de la qualification s’effectue auprès de l'un des 3 organismes certificateurs accrédités : Qualibat ou Afnor Certification, Global Certification. 
+En plus des moyens existants, et dans un contexte où 30 % des entreprises n'arrivaient pas à renouveler leur qualification, Dominique Florio, entrepreneur et président du Groupement National Amiante, a pris l'initiative fin 2010  de créer un réseau, baptisé RTD (« Réseau des Techniciens du Desamiantage », qui propose des formations, un accompagnement au certificat de qualification probatoire, des prêts de matériel pour l’audit entreprise…), a été créé pour accompagner les entreprises du bâtiment dans leur démarche de retrait d'amiante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Polémique sur la couverture médiatique du scandale</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que d'autres affaires furent révélées dans les grands médias grâce à d'un journalisme d'enquête particulièrement tenace et à la protection des sources des journalistes, protégeant les personnes ayant révélé des informations pour qu'elles ne soient pas inquiétées, dans le cas de Affaire de l'amiante en France, le manque de révélations a été déploré, sur fond de polémiques concernant l'ampleur des risques.
+En France, Claude Allègre dénonça un « phénomène de psychose collective ». Selon l'économiste en santé publique Jean de Kervasdoué, les chantiers de désamiantage pour enlever totalement les fibres sont « coûteux et totalement inutiles d’un point de vue sanitaire ; l'utilité s'il y en a une, est symbolique ». Selon lui, une même dépense investie dans des actions de santé publique aurait été « infiniment plus efficace ». Jean de Kervasdoué estime que l’État, en agissant ainsi, essaie de se laver du fait de n'avoir pas agi à temps, quand des personnes ont eu leur vie abrégée pour avoir manipulé l'amiante à bien plus hautes doses.
+En Angleterre, Christopher Booker, du London Sunday Telegraph et John Bridle en 2007 ont analysé le scandale de l'amiante comme étant une peur excessive et une obsession démesurée et montée en épingle : selon eux « L’obsession sur les dangers que représente l’amiante pour la santé est apparue par le biais de la promotion d’une confusion délibérée entre deux minéraux très différents qui, de par le simple fait qu’ils portent le même nom générique, ont fait l’objet d’une campagne malveillante de désinformation abusive par le "groupe de pression anti-amiante" de Grande-Bretagne, soutenue par tous ceux à qui cette confusion au sujet des différentes formes de l’amiante procurait un avantage financier. »
+The Spectator, passant en revue les phobies collectives, conclut que « la peur la plus coûteuse, qui devint une vaste escroquerie, fut la campagne contre l'amiante. Dans cette affaire, la véritable source de danger provenant des amphiboles (qui a été parée il y a longtemps) a été confondue avec l'amiante "blanche" sans risque dont 90 % de tous les matériaux contenant de l'amiante sont constitués. Ni les médias ni les législateurs ne se sont appuyés sur les faits pour résister aux pressions combinées de plusieurs lobbys, avocats avides d'honoraires liés à des condamnations judiciaires et entrepreneurs du bâtiment gagnant des sommes démesurées pour retirer des matériaux anti-incendie inoffensifs des bâtiments. [..] Des juges se mirent à accorder 25 millions de dollars à des plaignants qui ne présentaient aucun symptôme de maladie. Une folie collective prit le dessus. Lloyd's of London a été amené au bord de la ruine, un sort auquel n'échappèrent pas de nombreux membres de Lloyd's of London. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Commerce et intérêts de l'amiante dans le monde</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Affaire_de_l'amiante_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_de_l%27amiante_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Partie réglementaire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Décret no 78-394 du 20 mars 1978 relatif à l'emploi des fibres d'amiante pour le flocage des bâtiments version consolidée au 30 avril 1988[1]
-Décret no 96-97 du 7 février 1996 relatif à la protection de la population contre les risques sanitaires liés à une exposition à l'amiante dans les immeubles bâti version abrogée le 27 mai 2003 [2]</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décret no 78-394 du 20 mars 1978 relatif à l'emploi des fibres d'amiante pour le flocage des bâtiments version consolidée au 30 avril 1988
+Décret no 96-97 du 7 février 1996 relatif à la protection de la population contre les risques sanitaires liés à une exposition à l'amiante dans les immeubles bâti version abrogée le 27 mai 2003 </t>
         </is>
       </c>
     </row>
